--- a/inputs_all_fields.xlsx
+++ b/inputs_all_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\海上风电场项目2025\风场仿真\偏航优化基于现有模型 - 功率推力系数查表 - 副本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStore\power_maximum_test\power_maximum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198685D2-CC6F-4FF0-AB18-729EAB492861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A490514B-0D93-4BA3-9F7F-79D662D2D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="3090" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turbine" sheetId="1" r:id="rId1"/>
@@ -1373,22 +1373,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H196"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="19.08203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>13140000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>3.5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>4.5</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>5.5</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.871</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>6.5</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>7.5</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>8</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>8.5</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>9</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>9.5</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>10</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>10.5</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>11</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>11.5</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>12</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>12.5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>13</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>13.5</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>14</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>14.5</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>15</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>15.5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>16</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>16.5</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>17</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>17.5</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>18</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>18.5</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>19</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>19.5</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>20</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>20.5</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>21</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>21.5</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>22</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>22.5</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>23</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>23.5</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>24</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>24.5</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>25</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>25.5</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>26</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>26.5</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>27</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>27.5</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>28</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>28.5</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>29</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>29.5</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>30</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>30.5</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>31</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>143</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>0</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>3</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <v>3.5</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>4</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>4.5</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>5</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>5.5</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>6</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>6.5</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>7</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>7.5</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>8</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>8.5</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>9</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>9.5</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>10</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>10.5</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>11</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>11.5</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>12</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>12.5</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>13</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>13.5</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>14</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>14.5</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>15</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>15.5</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>16</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>16.5</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>17</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>17.5</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>18</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>18.5</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>19</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>19.5</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>20</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>20.5</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>21</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>21.5</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>22</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>22.5</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>23</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>23.5</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>24</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>24.5</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>25</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>25.5</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>26</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>26.5</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>27</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>27.5</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>28</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>28.5</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>29</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>29.5</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>30</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>30.5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>31</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>144</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>0</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>3</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <v>3.5</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>4</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>4.5</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>5</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>5.5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>6</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>6.5</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>7</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>7.5</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>8</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>8.5</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>9</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>9.5</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>10</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>10.5</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>11</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>11.5</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>12</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>12.5</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>13</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <v>13.5</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>14</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>14.5</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <v>15</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <v>15.5</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>16</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <v>16.5</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
         <v>17</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <v>17.5</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
         <v>18</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>18.5</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <v>19</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <v>19.5</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>20</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>20.5</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
         <v>21</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>21.5</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>22</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>22.5</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>23</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>23.5</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>24</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>24.5</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>25</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>25.5</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>26</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>26.5</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>27</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>27.5</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>28</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>28.5</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>29</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>29.5</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>30</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>30.5</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="10">
         <v>31</v>
       </c>
@@ -3700,17 +3700,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DFA665-DC58-4C7E-98A5-45463C282C73}">
   <dimension ref="A2:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>20447</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>20917</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>20553</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>19783</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>19398</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>19013</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>18628</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>18253</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>20042</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>19649</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>19238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>18826</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>18415</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>18003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>17593</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>19152</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>18782</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>18398</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>18013</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>17628</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>17243</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>185</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>16858</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>186</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>16473</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>16088</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>18755</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>17139</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>16754</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>16369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>15984</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>15599</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>15214</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -4147,18 +4147,18 @@
         <v>14302</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>196</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>9003</v>
       </c>
       <c r="C39">
         <v>17111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>197</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>17543</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>16265</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>15880</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>15505</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>15318</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>14933</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>14548</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>14163</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>13778</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>13393</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>210</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>12634</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>12158</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>11243</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>14819</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>14423</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>14027</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>13632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>217</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>13206</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>12819</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>12392</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>221</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>11537</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>11110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>10683</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>224</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>10256</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>225</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>13882</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>13465</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>13048</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>12631</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>12215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>11799</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>11382</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>232</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>10965</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>10548</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>9715</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>9298</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>11416</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>238</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>11031</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>10646</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>10261</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>241</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>9876</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>9491</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>243</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>9106</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>245</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>8355</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>8529</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>8144</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>7759</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>7374</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>250</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>251</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>16704</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>9970</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>9496</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>9022</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>8074</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>7130</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>6647</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>6173</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>4751</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>69</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>9064</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>8591</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>8118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>7514</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>73</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>6991</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>75</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>76</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>77</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>5098</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>4624</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>79</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>80</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>8553</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>7738</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>7265</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>6661</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>85</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>6088</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>86</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>87</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>90</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>91</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>7377</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>93</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>6431</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>95</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>5797</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>97</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>100</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>101</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>102</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>104</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>6697</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>105</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>106</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>107</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>109</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>110</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>111</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>113</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>114</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>116</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>117</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>120</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>122</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>123</v>
       </c>
@@ -5511,21 +5511,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8666A1-C412-48B3-B8B5-CBBF8717D5A0}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>126.354</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5613,12 +5613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -5678,13 +5678,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="31.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -5727,17 +5727,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5769,12 +5769,12 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5782,12 +5782,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5839,12 +5839,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -5892,12 +5892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
